--- a/data/trans_dic/P05A_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P05A_R-Estudios-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2889626344231583</v>
+        <v>0.2900668410707387</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3512061864498046</v>
+        <v>0.3506877103154534</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3286519352230318</v>
+        <v>0.3311168740408197</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1614827430991009</v>
+        <v>0.1637042231222986</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.319324972988866</v>
+        <v>0.317980349197902</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3697226859849012</v>
+        <v>0.3685104561487181</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.310358900912344</v>
+        <v>0.3108935584184583</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1596840352489293</v>
+        <v>0.1600736115919239</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.314844919032727</v>
+        <v>0.312610368431045</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.3704675998868208</v>
+        <v>0.3692568561790688</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.3287664084616343</v>
+        <v>0.3287222457209078</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1693873807520558</v>
+        <v>0.1691078860494663</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3430324885581362</v>
+        <v>0.347442116434714</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4155073185506306</v>
+        <v>0.4179975109860962</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4001597960319535</v>
+        <v>0.3985356117391108</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2236545988093591</v>
+        <v>0.2267290088281936</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.370258318095921</v>
+        <v>0.370079611351693</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4243590037903852</v>
+        <v>0.4221614551911749</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3747943643077816</v>
+        <v>0.375245311830205</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2032478899792939</v>
+        <v>0.2025683624110683</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3514462818014769</v>
+        <v>0.3507142120345614</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.4138082230054443</v>
+        <v>0.4113689533326572</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3754887958053068</v>
+        <v>0.3748984841251701</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.205640272951454</v>
+        <v>0.2063974736329152</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.366502782544909</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.1999124763492706</v>
+        <v>0.1999124763492705</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.3089833057554321</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2528179833763762</v>
+        <v>0.2533411487656093</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3705675046664323</v>
+        <v>0.3724095362995699</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3258312422201738</v>
+        <v>0.3261979354622137</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1541775128422329</v>
+        <v>0.1540756243267843</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3205412926418451</v>
+        <v>0.3232578600198747</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.3657125013023425</v>
+        <v>0.367878544243393</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.3457545527997581</v>
+        <v>0.3443931866871081</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1832597840748737</v>
+        <v>0.1849341665570474</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2932884784344097</v>
+        <v>0.2945408352593716</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.3765790779759675</v>
+        <v>0.3744105896927999</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.3421096963064568</v>
+        <v>0.3426075374833404</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1735243830100545</v>
+        <v>0.1729243037782067</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2960581184560723</v>
+        <v>0.2965450587986103</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4163981230345281</v>
+        <v>0.4161872870469553</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3684590935520018</v>
+        <v>0.3664607858249994</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1913145860086939</v>
+        <v>0.1915745501227648</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3723858595547341</v>
+        <v>0.3712712752647812</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.4151595649791916</v>
+        <v>0.4140212648367675</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.389511797407294</v>
+        <v>0.3872349252290894</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2182842328161176</v>
+        <v>0.2183081644249467</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3264474318820484</v>
+        <v>0.3263323039716717</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.4094900110582367</v>
+        <v>0.407625857928223</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3730499847460166</v>
+        <v>0.373427946416639</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1988323157897851</v>
+        <v>0.1988486904298708</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2869965741524166</v>
+        <v>0.2833134712273294</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3919043014055078</v>
+        <v>0.3848088976006032</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3630793914136118</v>
+        <v>0.3620868295613201</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1920773839765322</v>
+        <v>0.1907210907353082</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.289916410562881</v>
+        <v>0.2914170823849903</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.3908219256969667</v>
+        <v>0.3901585579006441</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.3706129429851592</v>
+        <v>0.3688410551163508</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2111914075036481</v>
+        <v>0.2107674958829967</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.3003094589430217</v>
+        <v>0.2997032412390326</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.3992468230099463</v>
+        <v>0.406611663606121</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.3783826265190801</v>
+        <v>0.3761898933183432</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2086081819315056</v>
+        <v>0.2104964754965874</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3674026372160359</v>
+        <v>0.3664058907720796</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4866714095119734</v>
+        <v>0.485898360517745</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.447243477264662</v>
+        <v>0.4538934186581247</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2622799256453198</v>
+        <v>0.2614927815954822</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3792270749391011</v>
+        <v>0.3781564672104003</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.485906512003656</v>
+        <v>0.4856524683233298</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.452867635511899</v>
+        <v>0.4567732773659841</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2664825828395969</v>
+        <v>0.2672644585613677</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3586522978972389</v>
+        <v>0.3620755955827344</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.468177673220371</v>
+        <v>0.4725482774174208</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.4370735157129614</v>
+        <v>0.4377454629204353</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2519850263052259</v>
+        <v>0.25348976910386</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.3600380965856538</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1854783489124396</v>
+        <v>0.1854783489124397</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.3440730259216244</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.280737893077274</v>
+        <v>0.2809946008227046</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3790706989248376</v>
+        <v>0.37753569181298</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3430813300845361</v>
+        <v>0.3401688349855168</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1712938566465902</v>
+        <v>0.1714463050131483</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3261511653591103</v>
+        <v>0.3273618084042295</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3820026855703516</v>
+        <v>0.3812652486251987</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3495047829709155</v>
+        <v>0.34955541702957</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1913708310627492</v>
+        <v>0.1915804624844646</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.3085942606506412</v>
+        <v>0.3086580730625506</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.3856836873957956</v>
+        <v>0.385297496435915</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.3523905749893607</v>
+        <v>0.3516430826882035</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1852196037336707</v>
+        <v>0.185346026317238</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3108917787262384</v>
+        <v>0.3126527666479297</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4131339613636659</v>
+        <v>0.412762813316555</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3760869241357199</v>
+        <v>0.3765468707544812</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2002172296667474</v>
+        <v>0.2000232108292778</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3595365054260688</v>
+        <v>0.3609574382287812</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.4165040565544584</v>
+        <v>0.4168688144824819</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3834293404487216</v>
+        <v>0.3831883189827088</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2158039978469918</v>
+        <v>0.2161951309537334</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3311349645034042</v>
+        <v>0.3314070318207269</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.4103915433434565</v>
+        <v>0.409655431791031</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3757740007532047</v>
+        <v>0.3757135465082727</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2047852503762806</v>
+        <v>0.2040107620689394</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>298129</v>
+        <v>299269</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>341890</v>
+        <v>341386</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>247918</v>
+        <v>249777</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>93422</v>
+        <v>94708</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>419948</v>
+        <v>418180</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>494260</v>
+        <v>492640</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>307986</v>
+        <v>308516</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>131266</v>
+        <v>131587</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>738889</v>
+        <v>733645</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>855897</v>
+        <v>853100</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>574257</v>
+        <v>574179</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>237238</v>
+        <v>236847</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>353915</v>
+        <v>358464</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>404486</v>
+        <v>406910</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>301859</v>
+        <v>300634</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>129391</v>
+        <v>131169</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>486932</v>
+        <v>486697</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>567300</v>
+        <v>564362</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>371929</v>
+        <v>372376</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>167077</v>
+        <v>166519</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>824786</v>
+        <v>823068</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>956028</v>
+        <v>950392</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>655867</v>
+        <v>654836</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>288013</v>
+        <v>289073</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>428125</v>
+        <v>429011</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>726475</v>
+        <v>730086</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>676138</v>
+        <v>676899</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>343903</v>
+        <v>343676</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>508915</v>
+        <v>513228</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>641060</v>
+        <v>644857</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>687464</v>
+        <v>684757</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>397929</v>
+        <v>401565</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>962305</v>
+        <v>966414</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>1398368</v>
+        <v>1390316</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>1390135</v>
+        <v>1392158</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>763847</v>
+        <v>761206</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>501349</v>
+        <v>502173</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>816323</v>
+        <v>815909</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>764596</v>
+        <v>760449</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>426740</v>
+        <v>427320</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>591227</v>
+        <v>589457</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>727737</v>
+        <v>725741</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>774466</v>
+        <v>769939</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>473981</v>
+        <v>474033</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>1071102</v>
+        <v>1070724</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>1520578</v>
+        <v>1513656</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>1515858</v>
+        <v>1517394</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>875252</v>
+        <v>875324</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>158252</v>
+        <v>156221</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>188577</v>
+        <v>185163</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>198563</v>
+        <v>198020</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>136680</v>
+        <v>135715</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>138120</v>
+        <v>138835</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>179243</v>
+        <v>178939</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>203518</v>
+        <v>202545</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>154897</v>
+        <v>154587</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>308664</v>
+        <v>308041</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>375217</v>
+        <v>382139</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>414718</v>
+        <v>412314</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>301446</v>
+        <v>304174</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>202589</v>
+        <v>202039</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>234177</v>
+        <v>233805</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>244591</v>
+        <v>248228</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>186635</v>
+        <v>186075</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>180668</v>
+        <v>180158</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>222852</v>
+        <v>222735</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>248688</v>
+        <v>250832</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>195451</v>
+        <v>196024</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>368630</v>
+        <v>372149</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>439999</v>
+        <v>444107</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>479044</v>
+        <v>479781</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>364127</v>
+        <v>366301</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>919850</v>
+        <v>920691</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1294562</v>
+        <v>1289320</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1158363</v>
+        <v>1148529</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>603071</v>
+        <v>603608</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1102129</v>
+        <v>1106220</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1355490</v>
+        <v>1352874</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1233680</v>
+        <v>1233859</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>713215</v>
+        <v>713997</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>2053923</v>
+        <v>2054348</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>2685698</v>
+        <v>2683009</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>2433660</v>
+        <v>2428498</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1342390</v>
+        <v>1343306</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>1018650</v>
+        <v>1024420</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>1410892</v>
+        <v>1409624</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1269801</v>
+        <v>1271354</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>704901</v>
+        <v>704218</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>1214945</v>
+        <v>1219746</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>1477914</v>
+        <v>1479209</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>1353427</v>
+        <v>1352576</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>804275</v>
+        <v>805732</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>2203949</v>
+        <v>2205759</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>2857751</v>
+        <v>2852625</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>2595150</v>
+        <v>2594732</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1484193</v>
+        <v>1478580</v>
       </c>
     </row>
     <row r="20">
